--- a/NformTester/NformTester/Keywordscripts/600.20.30.210_VerifyThatSiteIdUsedInRunCommandAction.xlsx
+++ b/NformTester/NformTester/Keywordscripts/600.20.30.210_VerifyThatSiteIdUsedInRunCommandAction.xlsx
@@ -3919,10 +3919,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>"C:\run.bat"</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>"C:\Nform\commandresult.txt"</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -3935,6 +3931,10 @@
   </si>
   <si>
     <t>137</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"C:\runcommand.bat"</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -4933,8 +4933,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O138"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A92" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D148" sqref="D148"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G41" sqref="G41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5141,7 +5141,7 @@
         <v>765</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="C7" s="5">
         <v>6</v>
@@ -6084,10 +6084,10 @@
         <v>356</v>
       </c>
       <c r="G41" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="H41" s="11" t="s">
-        <v>878</v>
+        <v>4</v>
+      </c>
+      <c r="H41" s="26" t="s">
+        <v>882</v>
       </c>
       <c r="I41" s="11"/>
       <c r="J41" s="5"/>
@@ -6114,7 +6114,7 @@
         <v>3</v>
       </c>
       <c r="H42" s="11" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="I42" s="11"/>
       <c r="J42" s="5"/>
@@ -6141,7 +6141,7 @@
         <v>3</v>
       </c>
       <c r="H43" s="26" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="I43" s="11"/>
       <c r="J43" s="5"/>
@@ -7066,7 +7066,7 @@
       <c r="F82" s="21"/>
       <c r="G82" s="21"/>
       <c r="H82" s="11" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="I82" s="11" t="s">
         <v>858</v>
@@ -7092,7 +7092,7 @@
       <c r="F83" s="21"/>
       <c r="G83" s="21"/>
       <c r="H83" s="11" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="I83" s="11" t="s">
         <v>859</v>
@@ -7818,7 +7818,7 @@
       <c r="F114" s="21"/>
       <c r="G114" s="21"/>
       <c r="H114" s="11" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="I114" s="11" t="s">
         <v>867</v>
@@ -7844,7 +7844,7 @@
       <c r="F115" s="21"/>
       <c r="G115" s="21"/>
       <c r="H115" s="11" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="I115" s="11" t="s">
         <v>868</v>

--- a/NformTester/NformTester/Keywordscripts/600.20.30.210_VerifyThatSiteIdUsedInRunCommandAction.xlsx
+++ b/NformTester/NformTester/Keywordscripts/600.20.30.210_VerifyThatSiteIdUsedInRunCommandAction.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="15" windowWidth="15480" windowHeight="11640"/>
@@ -1204,12 +1204,12 @@
     <definedName name="Pause">'Form DataValDepend'!$CD$1</definedName>
     <definedName name="PauseCol">'Form DataValDepend'!$CD:$CD</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7698" uniqueCount="883">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7698" uniqueCount="882">
   <si>
     <t>FormLogin_to_LiebertR_Nform</t>
   </si>
@@ -3683,10 +3683,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>$SNMP_GXT_0_NAME$</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>"Description for GXT"</t>
   </si>
   <si>
@@ -3750,10 +3746,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>$SNMP_GXT_0_NAME$</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Select</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -3812,10 +3804,6 @@
     <t>SendCommandToSimulator</t>
   </si>
   <si>
-    <t>$SNMP_GXT_Ip_Port$</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>$Trap_GXT_Trap$</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -3935,6 +3923,14 @@
   </si>
   <si>
     <t>"C:\runcommand.bat"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>$NAME_SNMP_device_0$</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>$Trap_GXT_Port$</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -4197,14 +4193,14 @@
     <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="8">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="1"/>
     <cellStyle name="常规 2 2" xfId="3"/>
     <cellStyle name="常规 2 2 2" xfId="6"/>
     <cellStyle name="常规 2 2 3" xfId="7"/>
     <cellStyle name="常规 2 3" xfId="5"/>
     <cellStyle name="常规 2 4" xfId="4"/>
-    <cellStyle name="超链接" xfId="2" builtinId="8"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -4647,7 +4643,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -4933,8 +4929,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O138"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G41" sqref="G41"/>
+    <sheetView tabSelected="1" topLeftCell="D34" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H41" sqref="H41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5141,7 +5137,7 @@
         <v>765</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>881</v>
+        <v>878</v>
       </c>
       <c r="C7" s="5">
         <v>6</v>
@@ -5186,16 +5182,16 @@
         <v>815</v>
       </c>
       <c r="J8" s="21" t="s">
+        <v>880</v>
+      </c>
+      <c r="K8" s="21" t="s">
         <v>816</v>
       </c>
-      <c r="K8" s="21" t="s">
+      <c r="L8" s="21" t="s">
         <v>817</v>
       </c>
-      <c r="L8" s="21" t="s">
+      <c r="M8" s="21" t="s">
         <v>818</v>
-      </c>
-      <c r="M8" s="21" t="s">
-        <v>819</v>
       </c>
       <c r="N8" s="22"/>
       <c r="O8" s="2"/>
@@ -5209,7 +5205,7 @@
         <v>8</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
@@ -5331,10 +5327,10 @@
         <v>7</v>
       </c>
       <c r="H13" s="11" t="s">
+        <v>820</v>
+      </c>
+      <c r="I13" s="21" t="s">
         <v>821</v>
-      </c>
-      <c r="I13" s="21" t="s">
-        <v>822</v>
       </c>
       <c r="J13" s="21" t="b">
         <v>0</v>
@@ -5482,10 +5478,10 @@
         <v>7</v>
       </c>
       <c r="H18" s="21" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="I18" s="21" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="J18" s="21" t="b">
         <v>0</v>
@@ -5517,7 +5513,7 @@
         <v>4</v>
       </c>
       <c r="H19" s="11" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="I19" s="11"/>
       <c r="J19" s="21"/>
@@ -5567,7 +5563,7 @@
         <v>20</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="E21" s="21"/>
       <c r="F21" s="21"/>
@@ -5623,7 +5619,7 @@
         <v>19</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="G23" s="5" t="s">
         <v>2</v>
@@ -5656,7 +5652,7 @@
         <v>56</v>
       </c>
       <c r="H24" s="21" t="s">
-        <v>816</v>
+        <v>880</v>
       </c>
       <c r="I24" s="5"/>
       <c r="J24" s="5"/>
@@ -5680,7 +5676,7 @@
         <v>174</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="H25" s="11"/>
       <c r="I25" s="5"/>
@@ -5702,7 +5698,7 @@
         <v>518</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="G26" s="5" t="s">
         <v>2</v>
@@ -5727,13 +5723,13 @@
         <v>518</v>
       </c>
       <c r="F27" s="21" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="G27" s="21" t="s">
         <v>4</v>
       </c>
       <c r="H27" s="11" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="I27" s="21"/>
       <c r="J27" s="21"/>
@@ -5757,7 +5753,7 @@
         <v>17</v>
       </c>
       <c r="G28" s="21" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="H28" s="11"/>
       <c r="I28" s="21"/>
@@ -5782,7 +5778,7 @@
         <v>99</v>
       </c>
       <c r="G29" s="21" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="H29" s="11"/>
       <c r="I29" s="21"/>
@@ -5798,7 +5794,7 @@
         <v>29</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="E30" s="11"/>
       <c r="F30" s="5"/>
@@ -6087,7 +6083,7 @@
         <v>4</v>
       </c>
       <c r="H41" s="26" t="s">
-        <v>882</v>
+        <v>879</v>
       </c>
       <c r="I41" s="11"/>
       <c r="J41" s="5"/>
@@ -6114,7 +6110,7 @@
         <v>3</v>
       </c>
       <c r="H42" s="11" t="s">
-        <v>879</v>
+        <v>876</v>
       </c>
       <c r="I42" s="11"/>
       <c r="J42" s="5"/>
@@ -6141,7 +6137,7 @@
         <v>3</v>
       </c>
       <c r="H43" s="26" t="s">
-        <v>880</v>
+        <v>877</v>
       </c>
       <c r="I43" s="11"/>
       <c r="J43" s="5"/>
@@ -6304,7 +6300,7 @@
         <v>49</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="E50" s="11"/>
       <c r="F50" s="5"/>
@@ -6429,7 +6425,7 @@
         <v>392</v>
       </c>
       <c r="G55" s="21" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="H55" s="21"/>
       <c r="I55" s="21"/>
@@ -6450,16 +6446,16 @@
         <v>391</v>
       </c>
       <c r="F56" s="21" t="s">
+        <v>831</v>
+      </c>
+      <c r="G56" s="21" t="s">
         <v>832</v>
       </c>
-      <c r="G56" s="21" t="s">
-        <v>833</v>
-      </c>
       <c r="H56" s="21">
         <v>2</v>
       </c>
       <c r="I56" s="21" t="s">
-        <v>834</v>
+        <v>880</v>
       </c>
       <c r="J56" s="21"/>
       <c r="K56" s="21"/>
@@ -6481,10 +6477,10 @@
         <v>394</v>
       </c>
       <c r="G57" s="21" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="H57" s="21" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="I57" s="21"/>
       <c r="J57" s="21"/>
@@ -6504,13 +6500,13 @@
         <v>391</v>
       </c>
       <c r="F58" s="21" t="s">
+        <v>835</v>
+      </c>
+      <c r="G58" s="5" t="s">
+        <v>836</v>
+      </c>
+      <c r="H58" s="5" t="s">
         <v>837</v>
-      </c>
-      <c r="G58" s="5" t="s">
-        <v>838</v>
-      </c>
-      <c r="H58" s="5" t="s">
-        <v>839</v>
       </c>
       <c r="I58" s="21"/>
       <c r="J58" s="21"/>
@@ -6530,13 +6526,13 @@
         <v>391</v>
       </c>
       <c r="F59" s="21" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="G59" s="21" t="s">
         <v>56</v>
       </c>
       <c r="H59" s="21" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="I59" s="21"/>
       <c r="J59" s="21"/>
@@ -6622,7 +6618,7 @@
         <v>62</v>
       </c>
       <c r="D63" s="6" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="E63" s="5"/>
       <c r="F63" s="5"/>
@@ -6673,7 +6669,7 @@
         <v>27</v>
       </c>
       <c r="G65" s="5" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="H65" s="11"/>
       <c r="I65" s="11"/>
@@ -6694,7 +6690,7 @@
         <v>19</v>
       </c>
       <c r="F66" s="5" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="G66" s="5" t="s">
         <v>2</v>
@@ -6718,7 +6714,7 @@
         <v>19</v>
       </c>
       <c r="F67" s="5" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="G67" s="5" t="s">
         <v>3</v>
@@ -6762,10 +6758,10 @@
         <v>68</v>
       </c>
       <c r="D69" s="8" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="E69" s="11" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="F69" s="5">
         <v>2</v>
@@ -6784,7 +6780,7 @@
         <v>69</v>
       </c>
       <c r="D70" s="24" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="E70" s="11"/>
       <c r="F70" s="21"/>
@@ -6802,21 +6798,21 @@
         <v>70</v>
       </c>
       <c r="D71" s="8" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="E71" s="11" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="F71" s="5"/>
       <c r="G71" s="5"/>
-      <c r="H71" s="11" t="s">
-        <v>850</v>
+      <c r="H71" s="26" t="s">
+        <v>881</v>
       </c>
       <c r="I71" s="11">
         <v>1</v>
       </c>
       <c r="J71" s="5" t="s">
-        <v>851</v>
+        <v>848</v>
       </c>
       <c r="K71" s="5"/>
       <c r="L71" s="5"/>
@@ -6828,10 +6824,10 @@
         <v>71</v>
       </c>
       <c r="D72" s="8" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="E72" s="11" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="F72" s="5">
         <v>10</v>
@@ -6850,7 +6846,7 @@
         <v>72</v>
       </c>
       <c r="D73" s="6" t="s">
-        <v>852</v>
+        <v>849</v>
       </c>
       <c r="E73" s="11"/>
       <c r="F73" s="5"/>
@@ -6868,7 +6864,7 @@
         <v>73</v>
       </c>
       <c r="D74" s="8" t="s">
-        <v>853</v>
+        <v>850</v>
       </c>
       <c r="E74" s="11" t="s">
         <v>19</v>
@@ -6892,13 +6888,13 @@
         <v>74</v>
       </c>
       <c r="D75" s="8" t="s">
-        <v>853</v>
+        <v>850</v>
       </c>
       <c r="E75" s="11" t="s">
         <v>19</v>
       </c>
       <c r="F75" s="5" t="s">
-        <v>854</v>
+        <v>851</v>
       </c>
       <c r="G75" s="5" t="s">
         <v>2</v>
@@ -6916,13 +6912,13 @@
         <v>75</v>
       </c>
       <c r="D76" s="8" t="s">
-        <v>853</v>
+        <v>850</v>
       </c>
       <c r="E76" s="11" t="s">
         <v>19</v>
       </c>
       <c r="F76" s="5" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="G76" s="5" t="s">
         <v>57</v>
@@ -6944,7 +6940,7 @@
         <v>76</v>
       </c>
       <c r="D77" s="8" t="s">
-        <v>853</v>
+        <v>850</v>
       </c>
       <c r="E77" s="11" t="s">
         <v>19</v>
@@ -6968,10 +6964,10 @@
         <v>77</v>
       </c>
       <c r="D78" s="8" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="E78" s="11" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="F78" s="5">
         <v>2</v>
@@ -6993,10 +6989,10 @@
         <v>786</v>
       </c>
       <c r="E79" s="11" t="s">
-        <v>855</v>
+        <v>852</v>
       </c>
       <c r="F79" s="5" t="s">
-        <v>856</v>
+        <v>853</v>
       </c>
       <c r="G79" s="5" t="s">
         <v>59</v>
@@ -7019,7 +7015,7 @@
         <v>786</v>
       </c>
       <c r="E80" s="11" t="s">
-        <v>855</v>
+        <v>852</v>
       </c>
       <c r="F80" s="5" t="s">
         <v>99</v>
@@ -7040,7 +7036,7 @@
         <v>80</v>
       </c>
       <c r="D81" s="6" t="s">
-        <v>860</v>
+        <v>857</v>
       </c>
       <c r="E81" s="11"/>
       <c r="F81" s="5"/>
@@ -7058,18 +7054,18 @@
         <v>81</v>
       </c>
       <c r="D82" s="20" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="E82" s="21" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
       <c r="F82" s="21"/>
       <c r="G82" s="21"/>
-      <c r="H82" s="11" t="s">
-        <v>878</v>
+      <c r="H82" s="26" t="s">
+        <v>875</v>
       </c>
       <c r="I82" s="11" t="s">
-        <v>858</v>
+        <v>855</v>
       </c>
       <c r="J82" s="21" t="b">
         <v>1</v>
@@ -7084,18 +7080,18 @@
         <v>82</v>
       </c>
       <c r="D83" s="20" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="E83" s="21" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
       <c r="F83" s="21"/>
       <c r="G83" s="21"/>
       <c r="H83" s="11" t="s">
-        <v>878</v>
+        <v>875</v>
       </c>
       <c r="I83" s="11" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
       <c r="J83" s="21" t="b">
         <v>1</v>
@@ -7110,7 +7106,7 @@
         <v>83</v>
       </c>
       <c r="D84" s="6" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="E84" s="21"/>
       <c r="F84" s="21"/>
@@ -7158,7 +7154,7 @@
         <v>19</v>
       </c>
       <c r="F86" s="5" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="G86" s="5" t="s">
         <v>2</v>
@@ -7188,7 +7184,7 @@
         <v>56</v>
       </c>
       <c r="H87" s="21" t="s">
-        <v>816</v>
+        <v>880</v>
       </c>
       <c r="I87" s="5"/>
       <c r="J87" s="5"/>
@@ -7211,7 +7207,7 @@
         <v>174</v>
       </c>
       <c r="G88" s="5" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="H88" s="11"/>
       <c r="I88" s="5"/>
@@ -7232,7 +7228,7 @@
         <v>518</v>
       </c>
       <c r="F89" s="5" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="G89" s="5" t="s">
         <v>2</v>
@@ -7256,10 +7252,10 @@
         <v>518</v>
       </c>
       <c r="F90" s="21" t="s">
-        <v>862</v>
+        <v>859</v>
       </c>
       <c r="G90" s="11" t="s">
-        <v>863</v>
+        <v>860</v>
       </c>
       <c r="H90" s="11"/>
       <c r="I90" s="21"/>
@@ -7280,13 +7276,13 @@
         <v>518</v>
       </c>
       <c r="F91" s="21" t="s">
-        <v>864</v>
+        <v>861</v>
       </c>
       <c r="G91" s="21" t="s">
         <v>4</v>
       </c>
       <c r="H91" s="11" t="s">
-        <v>865</v>
+        <v>862</v>
       </c>
       <c r="I91" s="21"/>
       <c r="J91" s="21"/>
@@ -7306,13 +7302,13 @@
         <v>518</v>
       </c>
       <c r="F92" s="21" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="G92" s="21" t="s">
         <v>4</v>
       </c>
       <c r="H92" s="11" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
       <c r="I92" s="21"/>
       <c r="J92" s="21"/>
@@ -7335,7 +7331,7 @@
         <v>17</v>
       </c>
       <c r="G93" s="21" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="H93" s="11"/>
       <c r="I93" s="21"/>
@@ -7359,7 +7355,7 @@
         <v>99</v>
       </c>
       <c r="G94" s="21" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="H94" s="11"/>
       <c r="I94" s="21"/>
@@ -7374,7 +7370,7 @@
         <v>94</v>
       </c>
       <c r="D95" s="6" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="E95" s="5"/>
       <c r="F95" s="5"/>
@@ -7425,7 +7421,7 @@
         <v>27</v>
       </c>
       <c r="G97" s="5" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="H97" s="11"/>
       <c r="I97" s="11"/>
@@ -7446,7 +7442,7 @@
         <v>19</v>
       </c>
       <c r="F98" s="5" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="G98" s="5" t="s">
         <v>2</v>
@@ -7470,7 +7466,7 @@
         <v>19</v>
       </c>
       <c r="F99" s="5" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="G99" s="5" t="s">
         <v>3</v>
@@ -7514,10 +7510,10 @@
         <v>100</v>
       </c>
       <c r="D101" s="8" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="E101" s="11" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="F101" s="5">
         <v>2</v>
@@ -7536,7 +7532,7 @@
         <v>101</v>
       </c>
       <c r="D102" s="24" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="E102" s="11"/>
       <c r="F102" s="21"/>
@@ -7554,21 +7550,21 @@
         <v>102</v>
       </c>
       <c r="D103" s="8" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="E103" s="11" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="F103" s="5"/>
       <c r="G103" s="5"/>
-      <c r="H103" s="11" t="s">
-        <v>850</v>
+      <c r="H103" s="26" t="s">
+        <v>881</v>
       </c>
       <c r="I103" s="11">
         <v>1</v>
       </c>
       <c r="J103" s="5" t="s">
-        <v>851</v>
+        <v>848</v>
       </c>
       <c r="K103" s="5"/>
       <c r="L103" s="5"/>
@@ -7580,10 +7576,10 @@
         <v>103</v>
       </c>
       <c r="D104" s="8" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="E104" s="11" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="F104" s="5">
         <v>10</v>
@@ -7602,7 +7598,7 @@
         <v>104</v>
       </c>
       <c r="D105" s="6" t="s">
-        <v>852</v>
+        <v>849</v>
       </c>
       <c r="E105" s="11"/>
       <c r="F105" s="5"/>
@@ -7620,7 +7616,7 @@
         <v>105</v>
       </c>
       <c r="D106" s="8" t="s">
-        <v>853</v>
+        <v>850</v>
       </c>
       <c r="E106" s="11" t="s">
         <v>19</v>
@@ -7644,13 +7640,13 @@
         <v>106</v>
       </c>
       <c r="D107" s="8" t="s">
-        <v>853</v>
+        <v>850</v>
       </c>
       <c r="E107" s="11" t="s">
         <v>19</v>
       </c>
       <c r="F107" s="5" t="s">
-        <v>854</v>
+        <v>851</v>
       </c>
       <c r="G107" s="5" t="s">
         <v>2</v>
@@ -7668,13 +7664,13 @@
         <v>107</v>
       </c>
       <c r="D108" s="8" t="s">
-        <v>853</v>
+        <v>850</v>
       </c>
       <c r="E108" s="11" t="s">
         <v>19</v>
       </c>
       <c r="F108" s="5" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="G108" s="5" t="s">
         <v>57</v>
@@ -7696,7 +7692,7 @@
         <v>108</v>
       </c>
       <c r="D109" s="8" t="s">
-        <v>853</v>
+        <v>850</v>
       </c>
       <c r="E109" s="11" t="s">
         <v>19</v>
@@ -7720,10 +7716,10 @@
         <v>109</v>
       </c>
       <c r="D110" s="8" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="E110" s="11" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="F110" s="5">
         <v>2</v>
@@ -7745,10 +7741,10 @@
         <v>786</v>
       </c>
       <c r="E111" s="11" t="s">
-        <v>855</v>
+        <v>852</v>
       </c>
       <c r="F111" s="5" t="s">
-        <v>856</v>
+        <v>853</v>
       </c>
       <c r="G111" s="5" t="s">
         <v>59</v>
@@ -7771,7 +7767,7 @@
         <v>786</v>
       </c>
       <c r="E112" s="11" t="s">
-        <v>855</v>
+        <v>852</v>
       </c>
       <c r="F112" s="5" t="s">
         <v>99</v>
@@ -7792,7 +7788,7 @@
         <v>112</v>
       </c>
       <c r="D113" s="6" t="s">
-        <v>860</v>
+        <v>857</v>
       </c>
       <c r="E113" s="11"/>
       <c r="F113" s="5"/>
@@ -7810,18 +7806,18 @@
         <v>113</v>
       </c>
       <c r="D114" s="20" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="E114" s="21" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
       <c r="F114" s="21"/>
       <c r="G114" s="21"/>
       <c r="H114" s="11" t="s">
-        <v>878</v>
+        <v>875</v>
       </c>
       <c r="I114" s="11" t="s">
-        <v>867</v>
+        <v>864</v>
       </c>
       <c r="J114" s="21" t="b">
         <v>1</v>
@@ -7836,18 +7832,18 @@
         <v>114</v>
       </c>
       <c r="D115" s="20" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="E115" s="21" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
       <c r="F115" s="21"/>
       <c r="G115" s="21"/>
       <c r="H115" s="11" t="s">
-        <v>878</v>
+        <v>875</v>
       </c>
       <c r="I115" s="11" t="s">
-        <v>868</v>
+        <v>865</v>
       </c>
       <c r="J115" s="21" t="b">
         <v>1</v>
@@ -7862,7 +7858,7 @@
         <v>115</v>
       </c>
       <c r="D116" s="6" t="s">
-        <v>869</v>
+        <v>866</v>
       </c>
       <c r="E116" s="11"/>
       <c r="F116" s="5"/>
@@ -7880,10 +7876,10 @@
         <v>116</v>
       </c>
       <c r="D117" s="20" t="s">
-        <v>870</v>
+        <v>867</v>
       </c>
       <c r="E117" s="11" t="s">
-        <v>871</v>
+        <v>868</v>
       </c>
       <c r="F117" s="21">
         <v>5</v>
@@ -7926,7 +7922,7 @@
         <v>118</v>
       </c>
       <c r="D119" s="20" t="s">
-        <v>872</v>
+        <v>869</v>
       </c>
       <c r="E119" s="11" t="s">
         <v>19</v>
@@ -7950,10 +7946,10 @@
         <v>119</v>
       </c>
       <c r="D120" s="20" t="s">
-        <v>872</v>
+        <v>869</v>
       </c>
       <c r="E120" s="11" t="s">
-        <v>873</v>
+        <v>870</v>
       </c>
       <c r="F120" s="21" t="s">
         <v>578</v>
@@ -7976,10 +7972,10 @@
         <v>120</v>
       </c>
       <c r="D121" s="20" t="s">
-        <v>872</v>
+        <v>869</v>
       </c>
       <c r="E121" s="11" t="s">
-        <v>873</v>
+        <v>870</v>
       </c>
       <c r="F121" s="21" t="s">
         <v>184</v>
@@ -8000,7 +7996,7 @@
         <v>121</v>
       </c>
       <c r="D122" s="20" t="s">
-        <v>872</v>
+        <v>869</v>
       </c>
       <c r="E122" s="21" t="s">
         <v>585</v>
@@ -8024,10 +8020,10 @@
         <v>122</v>
       </c>
       <c r="D123" s="20" t="s">
-        <v>872</v>
+        <v>869</v>
       </c>
       <c r="E123" s="11" t="s">
-        <v>873</v>
+        <v>870</v>
       </c>
       <c r="F123" s="21" t="s">
         <v>99</v>
@@ -8051,7 +8047,7 @@
         <v>785</v>
       </c>
       <c r="E124" s="11" t="s">
-        <v>871</v>
+        <v>868</v>
       </c>
       <c r="F124" s="21">
         <v>3</v>
@@ -8070,7 +8066,7 @@
         <v>124</v>
       </c>
       <c r="D125" s="6" t="s">
-        <v>874</v>
+        <v>871</v>
       </c>
       <c r="E125" s="5"/>
       <c r="F125" s="5"/>
@@ -8172,7 +8168,7 @@
         <v>4</v>
       </c>
       <c r="H129" s="11" t="s">
-        <v>875</v>
+        <v>872</v>
       </c>
       <c r="I129" s="11"/>
       <c r="J129" s="21"/>
@@ -8195,7 +8191,7 @@
         <v>411</v>
       </c>
       <c r="G130" s="21" t="s">
-        <v>876</v>
+        <v>873</v>
       </c>
       <c r="H130" s="21"/>
       <c r="I130" s="21"/>
@@ -8234,7 +8230,7 @@
         <v>131</v>
       </c>
       <c r="D132" s="6" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
       <c r="E132" s="21"/>
       <c r="F132" s="21"/>
@@ -8252,7 +8248,7 @@
         <v>132</v>
       </c>
       <c r="D133" s="8" t="s">
-        <v>853</v>
+        <v>850</v>
       </c>
       <c r="E133" s="5" t="s">
         <v>19</v>
@@ -8276,7 +8272,7 @@
         <v>133</v>
       </c>
       <c r="D134" s="8" t="s">
-        <v>853</v>
+        <v>850</v>
       </c>
       <c r="E134" s="5" t="s">
         <v>19</v>
@@ -8300,7 +8296,7 @@
         <v>134</v>
       </c>
       <c r="D135" s="8" t="s">
-        <v>853</v>
+        <v>850</v>
       </c>
       <c r="E135" s="11" t="s">
         <v>306</v>

--- a/NformTester/NformTester/Keywordscripts/600.20.30.210_VerifyThatSiteIdUsedInRunCommandAction.xlsx
+++ b/NformTester/NformTester/Keywordscripts/600.20.30.210_VerifyThatSiteIdUsedInRunCommandAction.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="15" windowWidth="15480" windowHeight="11640"/>
@@ -1204,7 +1204,7 @@
     <definedName name="Pause">'Form DataValDepend'!$CD$1</definedName>
     <definedName name="PauseCol">'Form DataValDepend'!$CD:$CD</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -3907,10 +3907,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>"C:\Nform\commandresult.txt"</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>"{{RSD site ID}"</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -3931,6 +3927,10 @@
   </si>
   <si>
     <t>$Trap_GXT_Port$</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"C:\commandresult.txt"</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -4193,14 +4193,14 @@
     <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="8">
-    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="1"/>
     <cellStyle name="常规 2 2" xfId="3"/>
     <cellStyle name="常规 2 2 2" xfId="6"/>
     <cellStyle name="常规 2 2 3" xfId="7"/>
     <cellStyle name="常规 2 3" xfId="5"/>
     <cellStyle name="常规 2 4" xfId="4"/>
+    <cellStyle name="超链接" xfId="2" builtinId="8"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -4643,7 +4643,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -4929,8 +4929,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O138"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D34" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H41" sqref="H41"/>
+    <sheetView tabSelected="1" topLeftCell="D91" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H116" sqref="H116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5137,7 +5137,7 @@
         <v>765</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="C7" s="5">
         <v>6</v>
@@ -5182,7 +5182,7 @@
         <v>815</v>
       </c>
       <c r="J8" s="21" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="K8" s="21" t="s">
         <v>816</v>
@@ -5652,7 +5652,7 @@
         <v>56</v>
       </c>
       <c r="H24" s="21" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="I24" s="5"/>
       <c r="J24" s="5"/>
@@ -6083,7 +6083,7 @@
         <v>4</v>
       </c>
       <c r="H41" s="26" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="I41" s="11"/>
       <c r="J41" s="5"/>
@@ -6110,7 +6110,7 @@
         <v>3</v>
       </c>
       <c r="H42" s="11" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="I42" s="11"/>
       <c r="J42" s="5"/>
@@ -6137,7 +6137,7 @@
         <v>3</v>
       </c>
       <c r="H43" s="26" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="I43" s="11"/>
       <c r="J43" s="5"/>
@@ -6455,7 +6455,7 @@
         <v>2</v>
       </c>
       <c r="I56" s="21" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="J56" s="21"/>
       <c r="K56" s="21"/>
@@ -6806,7 +6806,7 @@
       <c r="F71" s="5"/>
       <c r="G71" s="5"/>
       <c r="H71" s="26" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="I71" s="11">
         <v>1</v>
@@ -7062,7 +7062,7 @@
       <c r="F82" s="21"/>
       <c r="G82" s="21"/>
       <c r="H82" s="26" t="s">
-        <v>875</v>
+        <v>881</v>
       </c>
       <c r="I82" s="11" t="s">
         <v>855</v>
@@ -7087,8 +7087,8 @@
       </c>
       <c r="F83" s="21"/>
       <c r="G83" s="21"/>
-      <c r="H83" s="11" t="s">
-        <v>875</v>
+      <c r="H83" s="26" t="s">
+        <v>881</v>
       </c>
       <c r="I83" s="11" t="s">
         <v>856</v>
@@ -7184,7 +7184,7 @@
         <v>56</v>
       </c>
       <c r="H87" s="21" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="I87" s="5"/>
       <c r="J87" s="5"/>
@@ -7558,7 +7558,7 @@
       <c r="F103" s="5"/>
       <c r="G103" s="5"/>
       <c r="H103" s="26" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="I103" s="11">
         <v>1</v>
@@ -7813,8 +7813,8 @@
       </c>
       <c r="F114" s="21"/>
       <c r="G114" s="21"/>
-      <c r="H114" s="11" t="s">
-        <v>875</v>
+      <c r="H114" s="26" t="s">
+        <v>881</v>
       </c>
       <c r="I114" s="11" t="s">
         <v>864</v>
@@ -7839,8 +7839,8 @@
       </c>
       <c r="F115" s="21"/>
       <c r="G115" s="21"/>
-      <c r="H115" s="11" t="s">
-        <v>875</v>
+      <c r="H115" s="26" t="s">
+        <v>881</v>
       </c>
       <c r="I115" s="11" t="s">
         <v>865</v>
